--- a/data/trans_dic/P70B_R2_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P70B_R2_2023-Edad-trans_dic.xlsx
@@ -564,10 +564,10 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.2517695462657637</v>
+        <v>0.2517695462657636</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.1223792716035336</v>
+        <v>0.1223792716035337</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.1905231359593396</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1331484012920315</v>
+        <v>0.1241944790992267</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.05144598504068704</v>
+        <v>0.05467425284872323</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1120011406169864</v>
+        <v>0.1163507912936355</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.4124095846116529</v>
+        <v>0.4152043407353416</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2227813925750288</v>
+        <v>0.2292913879395812</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2878460243797938</v>
+        <v>0.2914065303643401</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.09550262509729109</v>
+        <v>0.0967459279919656</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1092787774863837</v>
+        <v>0.1068469306836811</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1095480102530331</v>
+        <v>0.1085938227094681</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1899592755039176</v>
+        <v>0.1901115621099315</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1896275137637358</v>
+        <v>0.1894815478735875</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1768895729290152</v>
+        <v>0.1748553170406404</v>
       </c>
     </row>
     <row r="10">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1276368398611311</v>
+        <v>0.1255772995966147</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1367297738999154</v>
+        <v>0.1386965371806277</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1387194188178865</v>
+        <v>0.1395562780225233</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1916785335637224</v>
+        <v>0.1925350970635181</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2008216475664857</v>
+        <v>0.2036266858462007</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1866870950581795</v>
+        <v>0.1848600037422266</v>
       </c>
     </row>
     <row r="13">
@@ -729,7 +729,7 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.1354908541678631</v>
+        <v>0.135490854167863</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>0.1423175238763654</v>
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1056965530424989</v>
+        <v>0.1072529930725786</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1173085042806063</v>
+        <v>0.1176451655233891</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1179423251427428</v>
+        <v>0.1179481596143214</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1675403339300333</v>
+        <v>0.1708496588532241</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1737601993447472</v>
+        <v>0.1698249242689774</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1590675135574905</v>
+        <v>0.1588696047121877</v>
       </c>
     </row>
     <row r="16">
@@ -787,7 +787,7 @@
         <v>0.1268618338434007</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.1254892257783685</v>
+        <v>0.1254892257783684</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>0.1262943513725915</v>
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.0947601436306619</v>
+        <v>0.09432736844629565</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.0965810907506761</v>
+        <v>0.09235864356965427</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1041022099267273</v>
+        <v>0.1034077844254862</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1625807129986661</v>
+        <v>0.1622086847141247</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1634525937005151</v>
+        <v>0.1606823772394881</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1527235529803957</v>
+        <v>0.1513151585981737</v>
       </c>
     </row>
     <row r="19">
@@ -839,7 +839,7 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>0.1465927778419483</v>
+        <v>0.1465927778419482</v>
       </c>
       <c r="D19" s="5" t="n">
         <v>0.1456762339920042</v>
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.1267502103546216</v>
+        <v>0.1286145764652253</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.1293518495717249</v>
+        <v>0.129112472161301</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1346764966090855</v>
+        <v>0.1341283474127893</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.1644365596317376</v>
+        <v>0.1687750049084545</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.1609910208544946</v>
+        <v>0.1629280920102051</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.1591611997971082</v>
+        <v>0.1595239037408558</v>
       </c>
     </row>
     <row r="22">
@@ -1022,13 +1022,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>13591</v>
+        <v>12677</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>4720</v>
+        <v>5016</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>21708</v>
+        <v>22551</v>
       </c>
     </row>
     <row r="7">
@@ -1039,13 +1039,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>42097</v>
+        <v>42382</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>20439</v>
+        <v>21036</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>55790</v>
+        <v>56480</v>
       </c>
     </row>
     <row r="8">
@@ -1094,13 +1094,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>37811</v>
+        <v>38304</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>34882</v>
+        <v>34106</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>78341</v>
+        <v>77658</v>
       </c>
     </row>
     <row r="11">
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>75209</v>
+        <v>75269</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>60530</v>
+        <v>60483</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>126498</v>
+        <v>125043</v>
       </c>
     </row>
     <row r="12">
@@ -1166,13 +1166,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>68225</v>
+        <v>67125</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>54092</v>
+        <v>54870</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>129028</v>
+        <v>129806</v>
       </c>
     </row>
     <row r="15">
@@ -1183,13 +1183,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>102458</v>
+        <v>102915</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>79447</v>
+        <v>80557</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>173645</v>
+        <v>171945</v>
       </c>
     </row>
     <row r="16">
@@ -1238,13 +1238,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>57569</v>
+        <v>58416</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>53355</v>
+        <v>53508</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>117882</v>
+        <v>117888</v>
       </c>
     </row>
     <row r="19">
@@ -1255,13 +1255,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>91252</v>
+        <v>93055</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>79031</v>
+        <v>77241</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>158986</v>
+        <v>158788</v>
       </c>
     </row>
     <row r="20">
@@ -1310,13 +1310,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>31214</v>
+        <v>31072</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>22424</v>
+        <v>21443</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>58462</v>
+        <v>58072</v>
       </c>
     </row>
     <row r="23">
@@ -1327,13 +1327,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>53555</v>
+        <v>53432</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>37950</v>
+        <v>37307</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>85766</v>
+        <v>84976</v>
       </c>
     </row>
     <row r="24">
@@ -1382,13 +1382,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>241660</v>
+        <v>245215</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>193195</v>
+        <v>192838</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>457920</v>
+        <v>456056</v>
       </c>
     </row>
     <row r="27">
@@ -1399,13 +1399,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>313512</v>
+        <v>321784</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>240450</v>
+        <v>243343</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>541172</v>
+        <v>542405</v>
       </c>
     </row>
     <row r="28">
